--- a/TMS.xlsx
+++ b/TMS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webproject\tms_v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Cảng</t>
+  </si>
+  <si>
+    <t>Trạm thu phí</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
   <dimension ref="B2:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +817,11 @@
       </c>
       <c r="S14" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
